--- a/xlsx/_baidu_火影忍者_intext.xlsx
+++ b/xlsx/_baidu_火影忍者_intext.xlsx
@@ -20,7 +20,7 @@
     <t>火影忍者</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/2321.htm</t>
+    <t>https://baike.baidu.com/view/11375350.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%EF%BC%9A%E5%A4%9A%E4%B9%89%E8%AF%8D</t>
@@ -2231,7 +2231,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2300,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2323,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2484,7 +2484,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:7">
